--- a/timesForWebsite.xlsx
+++ b/timesForWebsite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apache24\htdocs\SDN-Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EC009B1-7237-47D7-A4A4-E130728EF58B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD23C0C-3DAF-4566-A9B7-D52A0B2EA5D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{99A12262-A985-4CC1-A4EE-14DA4F339661}"/>
   </bookViews>
@@ -389,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9077FED-0AAF-4BE5-B756-CBB7D566A928}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -421,6 +421,22 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43563</v>
+      </c>
+      <c r="B4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43564</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/timesForWebsite.xlsx
+++ b/timesForWebsite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apache24\htdocs\SDN-Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD23C0C-3DAF-4566-A9B7-D52A0B2EA5D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320B330F-3464-4433-A190-A42B8F541875}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{99A12262-A985-4CC1-A4EE-14DA4F339661}"/>
   </bookViews>
@@ -389,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9077FED-0AAF-4BE5-B756-CBB7D566A928}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,6 +437,22 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43566</v>
+      </c>
+      <c r="B6">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43567</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/timesForWebsite.xlsx
+++ b/timesForWebsite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apache24\htdocs\SDN-Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320B330F-3464-4433-A190-A42B8F541875}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84128D96-6C55-4D01-9E68-FE1925E580C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{99A12262-A985-4CC1-A4EE-14DA4F339661}"/>
   </bookViews>
@@ -389,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9077FED-0AAF-4BE5-B756-CBB7D566A928}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,6 +453,30 @@
         <v>8</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43573</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/timesForWebsite.xlsx
+++ b/timesForWebsite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apache24\htdocs\SDN-Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84128D96-6C55-4D01-9E68-FE1925E580C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3A385F-5C61-4B96-8561-C79D2E54F5F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{99A12262-A985-4CC1-A4EE-14DA4F339661}"/>
   </bookViews>
@@ -389,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9077FED-0AAF-4BE5-B756-CBB7D566A928}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,6 +477,30 @@
         <v>5</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43585</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/timesForWebsite.xlsx
+++ b/timesForWebsite.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apache24\htdocs\SDN-Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3A385F-5C61-4B96-8561-C79D2E54F5F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D96444E-9F63-4040-A56F-A88C9C5EC39D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{99A12262-A985-4CC1-A4EE-14DA4F339661}"/>
   </bookViews>
@@ -389,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9077FED-0AAF-4BE5-B756-CBB7D566A928}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -501,6 +501,14 @@
         <v>6</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43728</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
